--- a/xlsx/country_comparison/radical_redistr_all.xlsx
+++ b/xlsx/country_comparison/radical_redistr_all.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -454,13 +457,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.691528998427824</v>
+        <v>0.697784139846227</v>
       </c>
       <c r="C2" t="n">
         <v>0.720631493007796</v>
@@ -490,18 +496,21 @@
         <v>0.686595580402783</v>
       </c>
       <c r="L2" t="n">
+        <v>0.751219542680628</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.811502784231898</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.617009579445299</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.628298895035096</v>
+        <v>0.640816894691591</v>
       </c>
       <c r="C3" t="n">
         <v>0.652513730140403</v>
@@ -531,18 +540,21 @@
         <v>0.552356963169043</v>
       </c>
       <c r="L3" t="n">
+        <v>0.758838356320826</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.822096401408913</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.575856308665493</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.679366394096195</v>
+        <v>0.681044372483487</v>
       </c>
       <c r="C4" t="n">
         <v>0.701539116816613</v>
@@ -572,18 +584,21 @@
         <v>0.757961572913613</v>
       </c>
       <c r="L4" t="n">
+        <v>0.688032418294747</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.713280127381035</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.61682403920896</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.707938951979083</v>
+        <v>0.718622409738286</v>
       </c>
       <c r="C5" t="n">
         <v>0.771914246021119</v>
@@ -613,15 +628,18 @@
         <v>0.702350891319341</v>
       </c>
       <c r="L5" t="n">
+        <v>0.777791745530015</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.923156195289579</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.561077706529787</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>0.517681293588919</v>
@@ -653,16 +671,17 @@
       <c r="K6" t="n">
         <v>0.510803804042151</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6"/>
+      <c r="M6" t="n">
         <v>0.404576421408372</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>0.497966802692056</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0.681555290245375</v>
@@ -695,13 +714,14 @@
         <v>0.556549141338697</v>
       </c>
       <c r="L7"/>
-      <c r="M7" t="n">
+      <c r="M7"/>
+      <c r="N7" t="n">
         <v>0.669576569444861</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>0.456321149533914</v>
@@ -728,16 +748,17 @@
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
-      <c r="M8" t="n">
+      <c r="M8"/>
+      <c r="N8" t="n">
         <v>0.402384299767122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.608592184837411</v>
+        <v>0.604372010208571</v>
       </c>
       <c r="C9" t="n">
         <v>0.607364609309633</v>
@@ -767,15 +788,18 @@
         <v>0.584459911958352</v>
       </c>
       <c r="L9" t="n">
+        <v>0.561863705947669</v>
+      </c>
+      <c r="M9" t="n">
         <v>0.880404476411078</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>0.55423991791735</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
         <v>0.557378520605093</v>
@@ -806,7 +830,8 @@
         <v>0.76</v>
       </c>
       <c r="L10"/>
-      <c r="M10" t="n">
+      <c r="M10"/>
+      <c r="N10" t="n">
         <v>0.44</v>
       </c>
     </row>

--- a/xlsx/country_comparison/radical_redistr_all.xlsx
+++ b/xlsx/country_comparison/radical_redistr_all.xlsx
@@ -67,11 +67,12 @@
     <t xml:space="preserve">Prefers sustainable future</t>
   </si>
   <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have
-all countries converge in terms of GDP per capita by the end of the century"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could sign a petition and spread ideas</t>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,
+ and fund LICs (either petition, demonstrate, strike, or donate)</t>
   </si>
   <si>
     <t xml:space="preserve">More likely to vote for party if part of worldwide
@@ -466,7 +467,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.697784139846227</v>
+        <v>0.697581258153402</v>
       </c>
       <c r="C2" t="n">
         <v>0.720631493007796</v>
@@ -493,16 +494,16 @@
         <v>0.607824159400103</v>
       </c>
       <c r="K2" t="n">
-        <v>0.686595580402783</v>
+        <v>0.686659119892822</v>
       </c>
       <c r="L2" t="n">
-        <v>0.751219542680628</v>
+        <v>0.745847844531965</v>
       </c>
       <c r="M2" t="n">
         <v>0.811502784231898</v>
       </c>
       <c r="N2" t="n">
-        <v>0.617009579445299</v>
+        <v>0.617013940284116</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +511,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.640816894691591</v>
+        <v>0.641096347070675</v>
       </c>
       <c r="C3" t="n">
         <v>0.652513730140403</v>
@@ -537,16 +538,16 @@
         <v>0.409561977832253</v>
       </c>
       <c r="K3" t="n">
-        <v>0.552356963169043</v>
+        <v>0.552386382607627</v>
       </c>
       <c r="L3" t="n">
-        <v>0.758838356320826</v>
+        <v>0.752151504159109</v>
       </c>
       <c r="M3" t="n">
         <v>0.822096401408913</v>
       </c>
       <c r="N3" t="n">
-        <v>0.575856308665493</v>
+        <v>0.575861430623479</v>
       </c>
     </row>
     <row r="4">
@@ -554,7 +555,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.681044372483487</v>
+        <v>0.680881448179833</v>
       </c>
       <c r="C4" t="n">
         <v>0.701539116816613</v>
@@ -581,16 +582,16 @@
         <v>0.665468662233116</v>
       </c>
       <c r="K4" t="n">
-        <v>0.757961572913613</v>
+        <v>0.758076861129753</v>
       </c>
       <c r="L4" t="n">
-        <v>0.688032418294747</v>
+        <v>0.688615273248795</v>
       </c>
       <c r="M4" t="n">
         <v>0.713280127381035</v>
       </c>
       <c r="N4" t="n">
-        <v>0.61682403920896</v>
+        <v>0.616918649447641</v>
       </c>
     </row>
     <row r="5">
@@ -598,7 +599,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.718622409738286</v>
+        <v>0.717914385961719</v>
       </c>
       <c r="C5" t="n">
         <v>0.771914246021119</v>
@@ -625,16 +626,16 @@
         <v>0.657996933412559</v>
       </c>
       <c r="K5" t="n">
-        <v>0.702350891319341</v>
+        <v>0.702372413171302</v>
       </c>
       <c r="L5" t="n">
-        <v>0.777791745530015</v>
+        <v>0.770988593693527</v>
       </c>
       <c r="M5" t="n">
         <v>0.923156195289579</v>
       </c>
       <c r="N5" t="n">
-        <v>0.561077706529787</v>
+        <v>0.561039368985046</v>
       </c>
     </row>
     <row r="6">
@@ -642,41 +643,41 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.517681293588919</v>
+        <v>0.675595447215337</v>
       </c>
       <c r="C6" t="n">
-        <v>0.54627578656303</v>
+        <v>0.719216740354837</v>
       </c>
       <c r="D6" t="n">
-        <v>0.530038042676022</v>
+        <v>0.699222514786681</v>
       </c>
       <c r="E6" t="n">
-        <v>0.525216461992543</v>
+        <v>0.688082663981164</v>
       </c>
       <c r="F6" t="n">
-        <v>0.574663014312723</v>
+        <v>0.819338712934373</v>
       </c>
       <c r="G6" t="n">
-        <v>0.541227742327436</v>
+        <v>0.708420268414952</v>
       </c>
       <c r="H6" t="n">
-        <v>0.57000212855437</v>
+        <v>0.74352822863702</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5501691998004</v>
+        <v>0.68138828161491</v>
       </c>
       <c r="J6" t="n">
-        <v>0.48406365355452</v>
+        <v>0.639531813440066</v>
       </c>
       <c r="K6" t="n">
-        <v>0.510803804042151</v>
+        <v>0.557841849059486</v>
       </c>
       <c r="L6"/>
       <c r="M6" t="n">
-        <v>0.404576421408372</v>
+        <v>0.727098526374066</v>
       </c>
       <c r="N6" t="n">
-        <v>0.497966802692056</v>
+        <v>0.666651932459956</v>
       </c>
     </row>
     <row r="7">
@@ -684,7 +685,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.681555290245375</v>
+        <v>0.681565505605888</v>
       </c>
       <c r="C7" t="n">
         <v>0.717921387045684</v>
@@ -711,12 +712,12 @@
         <v>0.574755847246633</v>
       </c>
       <c r="K7" t="n">
-        <v>0.556549141338697</v>
+        <v>0.55659974095395</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7" t="n">
-        <v>0.669576569444861</v>
+        <v>0.669595480182533</v>
       </c>
     </row>
     <row r="8">
@@ -724,7 +725,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.456321149533914</v>
+        <v>0.456318549602673</v>
       </c>
       <c r="C8" t="n">
         <v>0.503463433986319</v>
@@ -750,7 +751,7 @@
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8" t="n">
-        <v>0.402384299767122</v>
+        <v>0.402452424604714</v>
       </c>
     </row>
     <row r="9">
@@ -758,7 +759,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.604372010208571</v>
+        <v>0.604334051757766</v>
       </c>
       <c r="C9" t="n">
         <v>0.607364609309633</v>
@@ -785,16 +786,16 @@
         <v>0.532287341883733</v>
       </c>
       <c r="K9" t="n">
-        <v>0.584459911958352</v>
+        <v>0.584541124690159</v>
       </c>
       <c r="L9" t="n">
-        <v>0.561863705947669</v>
+        <v>0.568089649263453</v>
       </c>
       <c r="M9" t="n">
         <v>0.880404476411078</v>
       </c>
       <c r="N9" t="n">
-        <v>0.55423991791735</v>
+        <v>0.55410364808233</v>
       </c>
     </row>
     <row r="10">
@@ -802,7 +803,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.557378520605093</v>
+        <v>0.55719177445442</v>
       </c>
       <c r="C10" t="n">
         <v>0.590740460977192</v>

--- a/xlsx/country_comparison/radical_redistr_all.xlsx
+++ b/xlsx/country_comparison/radical_redistr_all.xlsx
@@ -561,37 +561,37 @@
         <v>0.701539116816613</v>
       </c>
       <c r="D4" t="n">
-        <v>0.719673932778947</v>
+        <v>0.721220700610068</v>
       </c>
       <c r="E4" t="n">
-        <v>0.704645953003574</v>
+        <v>0.703415187125182</v>
       </c>
       <c r="F4" t="n">
-        <v>0.760434225154626</v>
+        <v>0.759706650286704</v>
       </c>
       <c r="G4" t="n">
-        <v>0.572739428737827</v>
+        <v>0.575101001313061</v>
       </c>
       <c r="H4" t="n">
-        <v>0.73608837047601</v>
+        <v>0.731116681894394</v>
       </c>
       <c r="I4" t="n">
-        <v>0.679200342355269</v>
+        <v>0.683377424047149</v>
       </c>
       <c r="J4" t="n">
-        <v>0.665468662233116</v>
+        <v>0.659704988708263</v>
       </c>
       <c r="K4" t="n">
-        <v>0.758076861129753</v>
+        <v>0.759539408850822</v>
       </c>
       <c r="L4" t="n">
-        <v>0.688615273248795</v>
+        <v>0.690381293922693</v>
       </c>
       <c r="M4" t="n">
-        <v>0.713280127381035</v>
+        <v>0.721853509181885</v>
       </c>
       <c r="N4" t="n">
-        <v>0.616918649447641</v>
+        <v>0.618731104894089</v>
       </c>
     </row>
     <row r="5">
@@ -599,43 +599,43 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.717914385961719</v>
+        <v>0.716369766863604</v>
       </c>
       <c r="C5" t="n">
-        <v>0.771914246021119</v>
+        <v>0.772717497952248</v>
       </c>
       <c r="D5" t="n">
-        <v>0.766507263214252</v>
+        <v>0.768126880551711</v>
       </c>
       <c r="E5" t="n">
-        <v>0.753861130269913</v>
+        <v>0.754584861941685</v>
       </c>
       <c r="F5" t="n">
-        <v>0.872751022530446</v>
+        <v>0.87256696213353</v>
       </c>
       <c r="G5" t="n">
-        <v>0.843671983069324</v>
+        <v>0.844461583387313</v>
       </c>
       <c r="H5" t="n">
-        <v>0.839464506964056</v>
+        <v>0.841389015556442</v>
       </c>
       <c r="I5" t="n">
-        <v>0.658359115936932</v>
+        <v>0.65867391008924</v>
       </c>
       <c r="J5" t="n">
-        <v>0.657996933412559</v>
+        <v>0.658259163542218</v>
       </c>
       <c r="K5" t="n">
-        <v>0.702372413171302</v>
+        <v>0.702279283302204</v>
       </c>
       <c r="L5" t="n">
-        <v>0.770988593693527</v>
+        <v>0.770751009217637</v>
       </c>
       <c r="M5" t="n">
-        <v>0.923156195289579</v>
+        <v>0.925808443317861</v>
       </c>
       <c r="N5" t="n">
-        <v>0.561039368985046</v>
+        <v>0.561959539989434</v>
       </c>
     </row>
     <row r="6">
@@ -649,35 +649,35 @@
         <v>0.719216740354837</v>
       </c>
       <c r="D6" t="n">
-        <v>0.699222514786681</v>
+        <v>0.703425024778734</v>
       </c>
       <c r="E6" t="n">
-        <v>0.688082663981164</v>
+        <v>0.690418272415403</v>
       </c>
       <c r="F6" t="n">
-        <v>0.819338712934373</v>
+        <v>0.817088824971887</v>
       </c>
       <c r="G6" t="n">
-        <v>0.708420268414952</v>
+        <v>0.707832398863728</v>
       </c>
       <c r="H6" t="n">
-        <v>0.74352822863702</v>
+        <v>0.743080145118413</v>
       </c>
       <c r="I6" t="n">
-        <v>0.68138828161491</v>
+        <v>0.682786565268408</v>
       </c>
       <c r="J6" t="n">
-        <v>0.639531813440066</v>
+        <v>0.629978960602202</v>
       </c>
       <c r="K6" t="n">
-        <v>0.557841849059486</v>
+        <v>0.559364498889858</v>
       </c>
       <c r="L6"/>
       <c r="M6" t="n">
-        <v>0.727098526374066</v>
+        <v>0.729122438104651</v>
       </c>
       <c r="N6" t="n">
-        <v>0.666651932459956</v>
+        <v>0.667115559981111</v>
       </c>
     </row>
     <row r="7">
@@ -691,33 +691,33 @@
         <v>0.717921387045684</v>
       </c>
       <c r="D7" t="n">
-        <v>0.714091515269221</v>
+        <v>0.716516257894719</v>
       </c>
       <c r="E7" t="n">
-        <v>0.708548808230668</v>
+        <v>0.707070890580701</v>
       </c>
       <c r="F7" t="n">
-        <v>0.816407521930324</v>
+        <v>0.816121829740342</v>
       </c>
       <c r="G7" t="n">
-        <v>0.641484569480548</v>
+        <v>0.639318978823409</v>
       </c>
       <c r="H7" t="n">
-        <v>0.770527202597002</v>
+        <v>0.771177034328568</v>
       </c>
       <c r="I7" t="n">
-        <v>0.693655710423161</v>
+        <v>0.693178534315937</v>
       </c>
       <c r="J7" t="n">
-        <v>0.574755847246633</v>
+        <v>0.571035672573194</v>
       </c>
       <c r="K7" t="n">
-        <v>0.55659974095395</v>
+        <v>0.556955266701761</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7" t="n">
-        <v>0.669595480182533</v>
+        <v>0.669890735490999</v>
       </c>
     </row>
     <row r="8">
@@ -731,27 +731,27 @@
         <v>0.503463433986319</v>
       </c>
       <c r="D8" t="n">
-        <v>0.439017852180626</v>
+        <v>0.438889632437241</v>
       </c>
       <c r="E8" t="n">
-        <v>0.440622293330631</v>
+        <v>0.441403577339026</v>
       </c>
       <c r="F8" t="n">
-        <v>0.693184703376204</v>
+        <v>0.692723367340905</v>
       </c>
       <c r="G8"/>
       <c r="H8" t="n">
-        <v>0.510071822726581</v>
+        <v>0.511112243128561</v>
       </c>
       <c r="I8" t="n">
-        <v>0.457404153027743</v>
+        <v>0.456721110351558</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8" t="n">
-        <v>0.402452424604714</v>
+        <v>0.402399638605333</v>
       </c>
     </row>
     <row r="9">
@@ -765,37 +765,37 @@
         <v>0.607364609309633</v>
       </c>
       <c r="D9" t="n">
-        <v>0.43434928853394</v>
+        <v>0.433525987240537</v>
       </c>
       <c r="E9" t="n">
-        <v>0.620480549810529</v>
+        <v>0.622061067971373</v>
       </c>
       <c r="F9" t="n">
-        <v>0.764082935010763</v>
+        <v>0.764034268173467</v>
       </c>
       <c r="G9" t="n">
-        <v>0.623852573023212</v>
+        <v>0.627378598315257</v>
       </c>
       <c r="H9" t="n">
-        <v>0.712781502518094</v>
+        <v>0.710473338089272</v>
       </c>
       <c r="I9" t="n">
-        <v>0.579281632810902</v>
+        <v>0.580152462807448</v>
       </c>
       <c r="J9" t="n">
-        <v>0.532287341883733</v>
+        <v>0.529014769509267</v>
       </c>
       <c r="K9" t="n">
-        <v>0.584541124690159</v>
+        <v>0.585754346694377</v>
       </c>
       <c r="L9" t="n">
-        <v>0.568089649263453</v>
+        <v>0.568451357363088</v>
       </c>
       <c r="M9" t="n">
-        <v>0.880404476411078</v>
+        <v>0.880923373592755</v>
       </c>
       <c r="N9" t="n">
-        <v>0.55410364808233</v>
+        <v>0.553829259151759</v>
       </c>
     </row>
     <row r="10">

--- a/xlsx/country_comparison/radical_redistr_all.xlsx
+++ b/xlsx/country_comparison/radical_redistr_all.xlsx
@@ -467,7 +467,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.697581258153402</v>
+        <v>0.69765080512889</v>
       </c>
       <c r="C2" t="n">
         <v>0.720631493007796</v>
@@ -497,7 +497,7 @@
         <v>0.686659119892822</v>
       </c>
       <c r="L2" t="n">
-        <v>0.745847844531965</v>
+        <v>0.74545283664306</v>
       </c>
       <c r="M2" t="n">
         <v>0.811502784231898</v>
@@ -511,7 +511,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.641096347070675</v>
+        <v>0.641212074509829</v>
       </c>
       <c r="C3" t="n">
         <v>0.652513730140403</v>
@@ -541,7 +541,7 @@
         <v>0.552386382607627</v>
       </c>
       <c r="L3" t="n">
-        <v>0.752151504159109</v>
+        <v>0.753742369172544</v>
       </c>
       <c r="M3" t="n">
         <v>0.822096401408913</v>
@@ -555,7 +555,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.680881448179833</v>
+        <v>0.680815013747804</v>
       </c>
       <c r="C4" t="n">
         <v>0.701539116816613</v>
@@ -576,7 +576,7 @@
         <v>0.731116681894394</v>
       </c>
       <c r="I4" t="n">
-        <v>0.683377424047149</v>
+        <v>0.68337742404715</v>
       </c>
       <c r="J4" t="n">
         <v>0.659704988708263</v>
@@ -585,7 +585,7 @@
         <v>0.759539408850822</v>
       </c>
       <c r="L4" t="n">
-        <v>0.690381293922693</v>
+        <v>0.689906588508866</v>
       </c>
       <c r="M4" t="n">
         <v>0.721853509181885</v>
@@ -599,7 +599,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.716369766863604</v>
+        <v>0.716320545692708</v>
       </c>
       <c r="C5" t="n">
         <v>0.772717497952248</v>
@@ -629,7 +629,7 @@
         <v>0.702279283302204</v>
       </c>
       <c r="L5" t="n">
-        <v>0.770751009217637</v>
+        <v>0.770447445890208</v>
       </c>
       <c r="M5" t="n">
         <v>0.925808443317861</v>
@@ -685,7 +685,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.681565505605888</v>
+        <v>0.681565505605889</v>
       </c>
       <c r="C7" t="n">
         <v>0.717921387045684</v>
@@ -759,7 +759,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.604334051757766</v>
+        <v>0.60421624928934</v>
       </c>
       <c r="C9" t="n">
         <v>0.607364609309633</v>
@@ -789,7 +789,7 @@
         <v>0.585754346694377</v>
       </c>
       <c r="L9" t="n">
-        <v>0.568451357363088</v>
+        <v>0.566998035082359</v>
       </c>
       <c r="M9" t="n">
         <v>0.880923373592755</v>
